--- a/ListasDatos/Moreno Arollo Anél_2021.xlsx
+++ b/ListasDatos/Moreno Arollo Anél_2021.xlsx
@@ -445,7 +445,7 @@
     <t>ANGEL NURIEL HERNANDEZ LOPEZ</t>
   </si>
   <si>
-    <t>NORBERTA FLORES FRIAS FLORES FRIAS</t>
+    <t>NORBERTA FLORES FRIAS</t>
   </si>
   <si>
     <t>F. ESTEFANÍA REYES BALTAZAR</t>
